--- a/Datas/Tables/UIWnd.xlsx
+++ b/Datas/Tables/UIWnd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -93,24 +93,6 @@
   </si>
   <si>
     <t>MainUI/TestPanel1</t>
-  </si>
-  <si>
-    <t>TestPanel2</t>
-  </si>
-  <si>
-    <t>MainUI/TestPanel2</t>
-  </si>
-  <si>
-    <t>TestPanel3</t>
-  </si>
-  <si>
-    <t>MainUI/TestPanel3</t>
-  </si>
-  <si>
-    <t>TestPanel4</t>
-  </si>
-  <si>
-    <t>MainUI/TestPanel4</t>
   </si>
 </sst>
 </file>
@@ -1057,17 +1039,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="7" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="22.1238938053097" customWidth="1"/>
+    <col min="3" max="3" width="21.2477876106195" customWidth="1"/>
+    <col min="5" max="5" width="18.8761061946903" customWidth="1"/>
+    <col min="6" max="7" width="21.2477876106195" customWidth="1"/>
+    <col min="9" max="9" width="18.8761061946903" customWidth="1"/>
+    <col min="10" max="10" width="22.1238938053097" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1172,47 +1154,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:5">
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
+    <row r="8" customFormat="1" spans="2:2">
+      <c r="B8" s="1"/>
     </row>
-    <row r="9" customFormat="1" spans="2:5">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
+    <row r="9" customFormat="1" spans="2:2">
+      <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
